--- a/Safetylist.xlsx
+++ b/Safetylist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76393ED3-3465-48D3-9CA7-07E2844152C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9E50E-0E57-452B-94FB-7978F439B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{412415F9-7A8E-482E-A537-B64AE5B4458E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{412415F9-7A8E-482E-A537-B64AE5B4458E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <author>정창민</author>
     <author>JungChangMin</author>
     <author>HHI</author>
+    <author>최항섭</author>
   </authors>
   <commentList>
     <comment ref="O1" authorId="0" shapeId="0" xr:uid="{673204A7-7F75-49EF-AC33-1E5B0D552EAE}">
@@ -175,12 +176,49 @@
         </r>
       </text>
     </comment>
+    <comment ref="A19" authorId="3" shapeId="0" xr:uid="{3BE5439F-E104-44A5-A88F-8044A331173E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>최항섭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름 확인 필요</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="118">
   <si>
     <t xml:space="preserve">Main FO pressure, engine inlet </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -506,13 +544,134 @@
   <si>
     <t>scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nozzle cooling oil temperature, engine outlet</t>
+  </si>
+  <si>
+    <t>TE58</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor failure</t>
+  </si>
+  <si>
+    <t>0.5 s</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Higher than set point</t>
+  </si>
+  <si>
+    <t>5 s</t>
+  </si>
+  <si>
+    <t>Alarm active after predined delay after reaching rated speed</t>
+  </si>
+  <si>
+    <t>Main FO dirty leakage tank level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS55</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 s</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay time to be provided as parameter</t>
+  </si>
+  <si>
+    <t>FO clean leakage tank level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS54</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean fuel oil leakage tank level high</t>
+  </si>
+  <si>
+    <t>Pilot FO temperature, HP pump inlet</t>
+  </si>
+  <si>
+    <t>TE31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot fuel oil temperature HP pump inlet sensor failure</t>
+  </si>
+  <si>
+    <t>Pilot fuel oil temperature HP pump inlet high</t>
+  </si>
+  <si>
+    <t>Pilot FO pressure, filter inlet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor failure (PT30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot fuel oil pressure filter inlet sensor failure</t>
+  </si>
+  <si>
+    <t>Pilot FO pressure, HP pump inlet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pilot fuel oil pressure HP pump inlet sensor failure</t>
+  </si>
+  <si>
+    <t>Pilot fuel oil pressure HP pump inlet low</t>
+  </si>
+  <si>
+    <t>Pilot fuel oil pressure HP pump inlet high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +821,18 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -677,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1151,6 +1322,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1161,7 +1375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1401,6 +1615,39 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1408,7 +1655,105 @@
     <cellStyle name="표준 2 2" xfId="2" xr:uid="{3B158509-002D-491E-854B-006F83BF65E1}"/>
     <cellStyle name="표준_Sheet1" xfId="1" xr:uid="{8133E198-C692-4E5F-A0BB-F4E6660F73E8}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1803,15 +2148,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601FF629-3AAD-4429-ADAA-ABE6111DC0A8}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="48" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="48" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -1875,8 +2220,17 @@
       <c r="AA1" s="73" t="s">
         <v>85</v>
       </c>
+      <c r="AB1" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="82" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1927,8 +2281,9 @@
       <c r="X2" s="39"/>
       <c r="Y2" s="68"/>
       <c r="Z2" s="70"/>
+      <c r="AB2" s="81"/>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,8 +2345,11 @@
       <c r="AA3" s="67">
         <v>100</v>
       </c>
+      <c r="AB3" s="81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -2061,8 +2419,11 @@
       <c r="AA4" s="67">
         <v>100</v>
       </c>
+      <c r="AB4" s="81">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -2132,8 +2493,17 @@
       <c r="AA5" s="67">
         <v>100</v>
       </c>
+      <c r="AB5" s="80">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="81">
+        <v>13054</v>
+      </c>
+      <c r="AD5" s="81">
+        <v>13554</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" ht="38.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>44</v>
       </c>
@@ -2195,8 +2565,11 @@
       <c r="AA6" s="74">
         <v>100</v>
       </c>
+      <c r="AB6" s="80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="51" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>48</v>
       </c>
@@ -2266,8 +2639,11 @@
       <c r="AA7" s="74">
         <v>100</v>
       </c>
+      <c r="AB7" s="80">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="51" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>53</v>
       </c>
@@ -2329,8 +2705,11 @@
       <c r="AA8" s="74">
         <v>500</v>
       </c>
+      <c r="AB8" s="80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>54</v>
@@ -2400,8 +2779,17 @@
       <c r="AA9" s="74">
         <v>10</v>
       </c>
+      <c r="AB9" s="80">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>13054</v>
+      </c>
+      <c r="AD9" s="81">
+        <v>13554</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>54</v>
@@ -2471,8 +2859,11 @@
       <c r="AA10" s="74">
         <v>10</v>
       </c>
+      <c r="AB10" s="80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>54</v>
@@ -2542,266 +2933,252 @@
       <c r="AA11" s="74">
         <v>10</v>
       </c>
+      <c r="AB11" s="80">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="81">
+        <v>13054</v>
+      </c>
+      <c r="AD11" s="81">
+        <v>13554</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="47" t="s">
+    <row r="12" spans="1:30" ht="63.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="48" t="s">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" s="3"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="83">
+        <v>10579</v>
+      </c>
+      <c r="Y12">
+        <v>13188</v>
+      </c>
+      <c r="Z12">
+        <v>13688</v>
+      </c>
+      <c r="AA12" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="89.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>80</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48" t="s">
+      <c r="O13" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" s="65">
-        <v>11605</v>
-      </c>
-      <c r="Y12" s="67">
-        <v>13141</v>
-      </c>
-      <c r="Z12" s="69">
-        <v>13641</v>
-      </c>
-      <c r="AA12" s="74">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="102" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="47">
-        <v>500</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="50">
-        <v>70310</v>
-      </c>
-      <c r="T13" s="48">
-        <v>70311</v>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="12">
+        <v>69128</v>
+      </c>
+      <c r="T13" s="10">
+        <v>69129</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X13" s="65">
-        <v>11611</v>
-      </c>
-      <c r="Y13" s="67">
-        <v>13141</v>
-      </c>
-      <c r="Z13" s="69">
-        <v>13641</v>
+        <v>93</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="83">
+        <v>10580</v>
+      </c>
+      <c r="Y13">
+        <v>13188</v>
+      </c>
+      <c r="Z13">
+        <v>13688</v>
       </c>
       <c r="AA13" s="74">
         <v>1</v>
       </c>
+      <c r="AB13" s="80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="47" t="s">
+    <row r="14" spans="1:30" ht="51" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="47">
-        <v>750</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="48"/>
+      <c r="D14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="S14" s="50">
-        <v>70304</v>
-      </c>
-      <c r="T14" s="48">
-        <v>70309</v>
+        <v>101</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="10">
+        <v>69135</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="65">
-        <v>11607</v>
-      </c>
-      <c r="Y14" s="67">
-        <v>13141</v>
-      </c>
-      <c r="Z14" s="69">
-        <v>13641</v>
+        <v>93</v>
+      </c>
+      <c r="V14" s="84"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="83">
+        <v>10636</v>
+      </c>
+      <c r="Y14">
+        <v>13027</v>
+      </c>
+      <c r="Z14">
+        <v>13527</v>
       </c>
       <c r="AA14" s="74">
         <v>1</v>
       </c>
+      <c r="AB14" s="80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="47" t="s">
+    <row r="15" spans="1:30" ht="51" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>50</v>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47">
-        <v>1300</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="50">
-        <v>70303</v>
-      </c>
-      <c r="T15" s="48">
-        <v>70308</v>
+        <v>104</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="10">
+        <v>69136</v>
       </c>
       <c r="U15" s="10" t="s">
         <v>8</v>
@@ -2812,83 +3189,809 @@
       <c r="W15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="65">
-        <v>11606</v>
-      </c>
-      <c r="Y15" s="67">
-        <v>13141</v>
-      </c>
-      <c r="Z15" s="69">
-        <v>13641</v>
+      <c r="X15" s="83">
+        <v>10512</v>
+      </c>
+      <c r="Y15">
+        <v>13026</v>
+      </c>
+      <c r="Z15">
+        <v>13526</v>
       </c>
       <c r="AA15" s="74">
         <v>1</v>
       </c>
+      <c r="AB15" s="80">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55" t="s">
+    <row r="16" spans="1:30" ht="51" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X16" s="83">
+        <v>10654</v>
+      </c>
+      <c r="Y16">
+        <v>13166</v>
+      </c>
+      <c r="Z16">
+        <v>13666</v>
+      </c>
+      <c r="AA16" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="89"/>
+      <c r="B17" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47">
+        <v>50</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="50">
+        <v>70300</v>
+      </c>
+      <c r="T17" s="48">
+        <v>70307</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="83">
+        <v>10653</v>
+      </c>
+      <c r="Y17">
+        <v>13166</v>
+      </c>
+      <c r="Z17">
+        <v>13666</v>
+      </c>
+      <c r="AA17" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="83">
+        <v>10646</v>
+      </c>
+      <c r="Y18">
+        <v>13142</v>
+      </c>
+      <c r="Z18">
+        <v>13642</v>
+      </c>
+      <c r="AA18" s="74">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="51" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" s="83">
+        <v>10652</v>
+      </c>
+      <c r="Y19">
+        <v>13142</v>
+      </c>
+      <c r="Z19">
+        <v>13642</v>
+      </c>
+      <c r="AA19" s="74">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="47">
+        <v>3</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="50">
+        <v>70302</v>
+      </c>
+      <c r="T20" s="48">
+        <v>70306</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="83">
+        <v>11608</v>
+      </c>
+      <c r="Y20">
+        <v>13143</v>
+      </c>
+      <c r="Z20">
+        <v>13643</v>
+      </c>
+      <c r="AA20" s="74">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="89"/>
+      <c r="B21" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47">
+        <v>8</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="50">
+        <v>70301</v>
+      </c>
+      <c r="T21" s="48">
+        <v>70305</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="83">
+        <v>11613</v>
+      </c>
+      <c r="Y21">
+        <v>13143</v>
+      </c>
+      <c r="Z21">
+        <v>13643</v>
+      </c>
+      <c r="AA21" s="74">
+        <v>100</v>
+      </c>
+      <c r="AB21" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="38.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C22" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D22" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="65">
+        <v>11605</v>
+      </c>
+      <c r="Y22" s="67">
+        <v>13141</v>
+      </c>
+      <c r="Z22" s="69">
+        <v>13641</v>
+      </c>
+      <c r="AA22" s="74">
+        <v>300</v>
+      </c>
+      <c r="AB22" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="102" x14ac:dyDescent="0.3">
+      <c r="A23" s="51"/>
+      <c r="B23" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="47">
+        <v>500</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" s="50">
+        <v>70310</v>
+      </c>
+      <c r="T23" s="48">
+        <v>70311</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="65">
+        <v>11611</v>
+      </c>
+      <c r="Y23" s="67">
+        <v>13141</v>
+      </c>
+      <c r="Z23" s="69">
+        <v>13641</v>
+      </c>
+      <c r="AA23" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="51"/>
+      <c r="B24" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="47">
+        <v>750</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S24" s="50">
+        <v>70304</v>
+      </c>
+      <c r="T24" s="48">
+        <v>70309</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="65">
+        <v>11607</v>
+      </c>
+      <c r="Y24" s="67">
+        <v>13141</v>
+      </c>
+      <c r="Z24" s="69">
+        <v>13641</v>
+      </c>
+      <c r="AA24" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47">
+        <v>1300</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="50">
+        <v>70303</v>
+      </c>
+      <c r="T25" s="48">
+        <v>70308</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="65">
+        <v>11606</v>
+      </c>
+      <c r="Y25" s="67">
+        <v>13141</v>
+      </c>
+      <c r="Z25" s="69">
+        <v>13641</v>
+      </c>
+      <c r="AA25" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="54"/>
+      <c r="B26" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55">
+      <c r="E26" s="56"/>
+      <c r="F26" s="55">
         <v>200</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K26" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L26" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M26" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="59" t="s">
+      <c r="N26" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59" t="s">
+      <c r="O26" s="59"/>
+      <c r="P26" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60" t="s">
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="S16" s="61">
+      <c r="S26" s="61">
         <v>70314</v>
       </c>
-      <c r="T16" s="59">
+      <c r="T26" s="59">
         <v>70315</v>
       </c>
-      <c r="U16" s="59" t="s">
+      <c r="U26" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="V16" s="55"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="66">
+      <c r="V26" s="55"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="66">
         <v>11604</v>
       </c>
-      <c r="Y16" s="68">
+      <c r="Y26" s="68">
         <v>13141</v>
       </c>
-      <c r="Z16" s="70">
+      <c r="Z26" s="70">
         <v>13641</v>
       </c>
-      <c r="AA16" s="74">
+      <c r="AA26" s="74">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="80">
         <v>1</v>
       </c>
     </row>
@@ -2899,31 +4002,66 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3:J5">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:I2">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:J9 I10:I11">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:J26">
+    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="notEqual">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:J13">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:I2">
+  <conditionalFormatting sqref="F14:J14">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2">
+  <conditionalFormatting sqref="F15:J15">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="I17 F16:J16">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:J9 I10:I11">
+  <conditionalFormatting sqref="F18:J18">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:J16">
+  <conditionalFormatting sqref="F19:J21">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
